--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_1.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="226">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Наименование оборудования, комплекта</t>
   </si>
   <si>
-    <t>Тип, марка</t>
-  </si>
-  <si>
-    <t>Заводской номер или маркировка</t>
-  </si>
-  <si>
     <t>Инвентарный номер</t>
   </si>
   <si>
@@ -660,6 +654,54 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>Заводской номер</t>
+  </si>
+  <si>
+    <t>Маркировка АСБИ</t>
+  </si>
+  <si>
+    <t>Сервер S6 / bk101-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch203-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch202-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch201-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch235-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch234-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S4 / sdb131-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S3 / fdb121-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube151-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube156-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube157-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер T2.1 / kube176-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>10GBASE-SR</t>
+  </si>
+  <si>
+    <t>10G SFP+ AOC</t>
   </si>
 </sst>
 </file>
@@ -688,7 +730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +753,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -743,11 +797,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1033,16 +1090,16 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.85546875" customWidth="1"/>
+    <col min="3" max="3" width="98.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="51.7109375" bestFit="1" customWidth="1"/>
@@ -1061,96 +1118,100 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2">
         <v>2020</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1158,38 +1219,40 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>2020</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1197,48 +1260,50 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2">
         <v>2020</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1248,24 +1313,24 @@
         <v>2020</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1275,36 +1340,36 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2">
         <v>2021</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1314,36 +1379,36 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2">
         <v>2021</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1353,36 +1418,36 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L8" s="2">
         <v>2021</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1392,36 +1457,36 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" s="2">
         <v>2021</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1431,36 +1496,36 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L10" s="2">
         <v>2021</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1470,81 +1535,85 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L11" s="2">
         <v>2021</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
+      <c r="A12" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="2">
-        <v>2020</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>209</v>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1552,38 +1621,40 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L13" s="2">
         <v>2020</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1591,48 +1662,50 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L14" s="2">
         <v>2020</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1642,69 +1715,73 @@
         <v>2020</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L16" s="2">
         <v>2020</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1712,38 +1789,40 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L17" s="2">
         <v>2020</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1751,48 +1830,50 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L18" s="2">
         <v>2020</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1802,69 +1883,73 @@
         <v>2020</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L20" s="2">
         <v>2020</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1872,38 +1957,40 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L21" s="2">
         <v>2020</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1911,48 +1998,50 @@
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L22" s="2">
         <v>2020</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -1962,69 +2051,73 @@
         <v>2020</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L24" s="2">
         <v>2020</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2032,38 +2125,40 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L25" s="2">
         <v>2020</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2071,48 +2166,50 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L26" s="2">
         <v>2020</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -2122,69 +2219,73 @@
         <v>2020</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L28" s="2">
         <v>2020</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2192,38 +2293,40 @@
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L29" s="2">
         <v>2020</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2231,48 +2334,50 @@
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L30" s="2">
         <v>2020</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -2282,69 +2387,73 @@
         <v>2020</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B32" s="2">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2">
         <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L32" s="2">
         <v>2020</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2352,38 +2461,40 @@
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L33" s="2">
         <v>2020</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2391,48 +2502,50 @@
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L34" s="2">
         <v>2020</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -2442,69 +2555,73 @@
         <v>2020</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B36" s="2">
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2">
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L36" s="2">
         <v>2020</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2512,38 +2629,40 @@
         <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L37" s="2">
         <v>2020</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2551,48 +2670,50 @@
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L38" s="2">
         <v>2020</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -2602,69 +2723,73 @@
         <v>2020</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" s="2">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L40" s="2">
         <v>2020</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2672,38 +2797,40 @@
         <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L41" s="2">
         <v>2020</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2711,48 +2838,50 @@
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L42" s="2">
         <v>2020</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
@@ -2762,69 +2891,73 @@
         <v>2020</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L44" s="2">
         <v>2020</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2832,38 +2965,40 @@
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L45" s="2">
         <v>2020</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2871,48 +3006,50 @@
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L46" s="2">
         <v>2020</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -2922,69 +3059,73 @@
         <v>2020</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B48" s="2">
         <v>11</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2">
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L48" s="2">
         <v>2020</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2992,38 +3133,40 @@
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L49" s="2">
         <v>2020</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3031,48 +3174,50 @@
         <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L50" s="2">
         <v>2020</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J51" s="2">
         <v>0</v>
@@ -3082,65 +3227,69 @@
         <v>2020</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2">
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L52" s="2">
         <v>2019</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3148,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -3158,26 +3307,28 @@
         <v>2020</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3185,79 +3336,79 @@
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2">
         <v>2020</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L55" s="2">
         <v>2021</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -3267,36 +3418,36 @@
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L56" s="2">
         <v>2021</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -3306,396 +3457,396 @@
         <v>1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L57" s="2">
         <v>2021</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="E58" s="3"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2">
         <v>1</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L58" s="2">
         <v>2020</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="E59" s="3"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2">
         <v>1</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L59" s="2">
         <v>2020</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="E60" s="3"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2">
         <v>1</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L60" s="2">
         <v>2020</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="3"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2">
         <v>1</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L61" s="2">
         <v>2020</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="3"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2">
         <v>1</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L62" s="2">
         <v>2020</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="E63" s="3"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2">
         <v>1</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L63" s="2">
         <v>2020</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>172</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="3"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2">
         <v>1</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L64" s="2">
         <v>2020</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="E65" s="3"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2">
         <v>1</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L65" s="2">
         <v>2020</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H66" s="2">
         <v>1</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_1.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="229">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -702,6 +702,15 @@
   </si>
   <si>
     <t>10G SFP+ AOC</t>
+  </si>
+  <si>
+    <t>DDR4_RDIMM_64</t>
+  </si>
+  <si>
+    <t>SYS-1029P-WTR</t>
+  </si>
+  <si>
+    <t>PM350-220/12</t>
   </si>
 </sst>
 </file>
@@ -721,12 +730,16 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1089,14 +1102,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.7109375" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
@@ -1332,7 +1345,9 @@
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1371,7 +1386,9 @@
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1410,7 +1427,9 @@
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1449,7 +1468,9 @@
       <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1488,7 +1509,9 @@
       <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1527,7 +1550,9 @@
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3246,7 +3271,9 @@
       <c r="C52" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E52" s="2" t="s">
         <v>223</v>
       </c>
@@ -3410,7 +3437,9 @@
       <c r="C56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3449,7 +3478,9 @@
       <c r="C57" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>

--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_1.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="231">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -101,9 +101,6 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>Кабель оптический 10G SFP+</t>
-  </si>
-  <si>
     <t>Учтено в коммутационном оборудовании</t>
   </si>
   <si>
@@ -557,9 +554,6 @@
     <t>13.10</t>
   </si>
   <si>
-    <t>Трансивер 40GBASE- LR4</t>
-  </si>
-  <si>
     <t>FT-QSFP+-LR4</t>
   </si>
   <si>
@@ -572,9 +566,6 @@
     <t>13.11</t>
   </si>
   <si>
-    <t>Кабель оптический 40G SFP+</t>
-  </si>
-  <si>
     <t>FT-QSFP+CabA-3</t>
   </si>
   <si>
@@ -698,12 +689,6 @@
     <t>Сервер T2.1 / kube176-f1.asbi.grfc.ru</t>
   </si>
   <si>
-    <t>10GBASE-SR</t>
-  </si>
-  <si>
-    <t>10G SFP+ AOC</t>
-  </si>
-  <si>
     <t>DDR4_RDIMM_64</t>
   </si>
   <si>
@@ -711,6 +696,27 @@
   </si>
   <si>
     <t>PM350-220/12</t>
+  </si>
+  <si>
+    <t>FT-SFP+SR-0.3-D</t>
+  </si>
+  <si>
+    <t>FT-SFP+CabA-5</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 5м</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 3м</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 2м</t>
+  </si>
+  <si>
+    <t>Кабель оптический 40G SFP+, 3м</t>
+  </si>
+  <si>
+    <t>Трансивер 40GBASE-LR4</t>
   </si>
 </sst>
 </file>
@@ -1102,14 +1108,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.140625" customWidth="1"/>
+    <col min="3" max="3" width="93" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
@@ -1131,10 +1137,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1158,13 +1164,13 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1172,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1181,17 +1187,17 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -1203,13 +1209,13 @@
         <v>2020</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1222,7 +1228,7 @@
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E3" s="2"/>
@@ -1244,13 +1250,13 @@
         <v>2020</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1263,7 +1269,7 @@
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E4" s="2"/>
@@ -1285,13 +1291,13 @@
         <v>2020</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1302,7 +1308,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>225</v>
@@ -1310,13 +1316,13 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1326,27 +1332,27 @@
         <v>2020</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1355,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1367,27 +1373,27 @@
         <v>2021</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1396,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1408,27 +1414,27 @@
         <v>2021</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1437,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -1449,27 +1455,27 @@
         <v>2021</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1478,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -1490,27 +1496,27 @@
         <v>2021</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1519,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -1531,27 +1537,27 @@
         <v>2021</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1560,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -1572,40 +1578,40 @@
         <v>2021</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
@@ -1617,26 +1623,26 @@
         <v>2020</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E13" s="2"/>
@@ -1658,26 +1664,26 @@
         <v>2020</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E14" s="2"/>
@@ -1699,24 +1705,24 @@
         <v>2020</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>225</v>
@@ -1724,13 +1730,13 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1740,40 +1746,40 @@
         <v>2020</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -1785,26 +1791,26 @@
         <v>2020</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E17" s="2"/>
@@ -1826,26 +1832,26 @@
         <v>2020</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E18" s="2"/>
@@ -1867,24 +1873,24 @@
         <v>2020</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>225</v>
@@ -1892,13 +1898,13 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1908,40 +1914,40 @@
         <v>2020</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -1953,26 +1959,26 @@
         <v>2020</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E21" s="2"/>
@@ -1994,26 +2000,26 @@
         <v>2020</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E22" s="2"/>
@@ -2035,24 +2041,24 @@
         <v>2020</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>225</v>
@@ -2060,13 +2066,13 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -2076,40 +2082,40 @@
         <v>2020</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -2121,26 +2127,26 @@
         <v>2020</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E25" s="2"/>
@@ -2162,26 +2168,26 @@
         <v>2020</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E26" s="2"/>
@@ -2203,24 +2209,24 @@
         <v>2020</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>225</v>
@@ -2228,13 +2234,13 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -2244,40 +2250,40 @@
         <v>2020</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="2">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -2289,26 +2295,26 @@
         <v>2020</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E29" s="2"/>
@@ -2330,26 +2336,26 @@
         <v>2020</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E30" s="2"/>
@@ -2371,38 +2377,38 @@
         <v>2020</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -2412,40 +2418,40 @@
         <v>2020</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="2">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2">
         <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -2457,26 +2463,26 @@
         <v>2020</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E33" s="2"/>
@@ -2498,26 +2504,26 @@
         <v>2020</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E34" s="2"/>
@@ -2539,38 +2545,38 @@
         <v>2020</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -2580,40 +2586,40 @@
         <v>2020</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="2">
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2">
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -2625,26 +2631,26 @@
         <v>2020</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E37" s="2"/>
@@ -2666,26 +2672,26 @@
         <v>2020</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E38" s="2"/>
@@ -2707,38 +2713,38 @@
         <v>2020</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -2748,40 +2754,40 @@
         <v>2020</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -2793,26 +2799,26 @@
         <v>2020</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E41" s="2"/>
@@ -2834,26 +2840,26 @@
         <v>2020</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E42" s="2"/>
@@ -2875,38 +2881,38 @@
         <v>2020</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
@@ -2916,40 +2922,40 @@
         <v>2020</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -2961,26 +2967,26 @@
         <v>2020</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E45" s="2"/>
@@ -3002,26 +3008,26 @@
         <v>2020</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E46" s="2"/>
@@ -3043,38 +3049,38 @@
         <v>2020</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -3084,40 +3090,40 @@
         <v>2020</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="2">
         <v>11</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2">
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -3129,26 +3135,26 @@
         <v>2020</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E49" s="2"/>
@@ -3170,26 +3176,26 @@
         <v>2020</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E50" s="2"/>
@@ -3211,38 +3217,38 @@
         <v>2020</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J51" s="2">
         <v>0</v>
@@ -3252,30 +3258,30 @@
         <v>2020</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3283,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -3295,26 +3301,26 @@
         <v>2019</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E53" s="2"/>
@@ -3324,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -3334,26 +3340,26 @@
         <v>2020</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E54" s="2"/>
@@ -3363,50 +3369,50 @@
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2">
         <v>2020</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -3418,27 +3424,27 @@
         <v>2021</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -3447,39 +3453,39 @@
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L56" s="2">
         <v>2021</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -3488,39 +3494,39 @@
         <v>1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L57" s="2">
         <v>2021</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="2"/>
@@ -3529,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -3541,27 +3547,27 @@
         <v>2020</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="2"/>
@@ -3570,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -3582,27 +3588,27 @@
         <v>2020</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="2"/>
@@ -3611,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -3623,27 +3629,27 @@
         <v>2020</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="2"/>
@@ -3652,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -3664,27 +3670,27 @@
         <v>2020</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="2"/>
@@ -3693,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -3705,27 +3711,27 @@
         <v>2020</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="2"/>
@@ -3734,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -3746,27 +3752,27 @@
         <v>2020</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="2"/>
@@ -3775,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
@@ -3787,27 +3793,27 @@
         <v>2020</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="2"/>
@@ -3816,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
@@ -3828,56 +3834,56 @@
         <v>2020</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H66" s="2">
         <v>1</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
